--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE88A5C-499F-4709-8611-1445EE41A7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EFC6C7-5EEF-499B-9AF7-EAF74EE66289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="225" windowWidth="18720" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="60" windowWidth="23325" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="241">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -2179,6 +2179,22 @@
   </si>
   <si>
     <t>도적의 우상 낙뢰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPID_ニョルズ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPID_ヘイズ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇨르드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤이드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2517,10 +2533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3544,6 +3560,22 @@
         <v>125</v>
       </c>
     </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\Desktop\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EFC6C7-5EEF-499B-9AF7-EAF74EE66289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0720EB-9A94-4BA7-B7B7-4D1C5EA71BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="60" windowWidth="23325" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="690" windowWidth="23325" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="474">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -2195,6 +2195,816 @@
   </si>
   <si>
     <t>헤이드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPID_比翼エリーゼ_v7.2</t>
+  </si>
+  <si>
+    <t>MEID_スカビオサ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_スカビオサ</t>
+  </si>
+  <si>
+    <t>MEID_プルメリア</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_プルメリア</t>
+  </si>
+  <si>
+    <t>MEID_フレイヤ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_フレイヤ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_フロージ</t>
+  </si>
+  <si>
+    <t>MEID_オッテル</t>
+  </si>
+  <si>
+    <t>MEID_ファフニール</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_オッテル</t>
+  </si>
+  <si>
+    <t>MEID_エイトリ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター</t>
+  </si>
+  <si>
+    <t>MEID_ダグ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ダグ</t>
+  </si>
+  <si>
+    <t>MEID_ノート</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ノート</t>
+  </si>
+  <si>
+    <t>MEID_フード無印</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_フード無印</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター剣</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター槍</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター斧</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター赤魔</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター青魔</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_アバター緑魔</t>
+  </si>
+  <si>
+    <t>MEID_ソードスチーム</t>
+  </si>
+  <si>
+    <t>MEID_ランススチーム</t>
+  </si>
+  <si>
+    <t>MEID_アクススチーム</t>
+  </si>
+  <si>
+    <t>MEID_ニフル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ニフル</t>
+  </si>
+  <si>
+    <t>MEID_ムスペル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ムスペル</t>
+  </si>
+  <si>
+    <t>MEID_ファフニール2</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ファフニール2</t>
+  </si>
+  <si>
+    <t>MEID_開花フィヨルム</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_開花フィヨルム</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_トール</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_エイトリ</t>
+  </si>
+  <si>
+    <t>MEID_エルム</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_エルム</t>
+  </si>
+  <si>
+    <t>MEID_ラウアマムクート</t>
+  </si>
+  <si>
+    <t>MEID_ブラーマムクート</t>
+  </si>
+  <si>
+    <t>MEID_グルンマムクート</t>
+  </si>
+  <si>
+    <t>MEID_ソードドラゴン</t>
+  </si>
+  <si>
+    <t>MEID_ランスドラゴン</t>
+  </si>
+  <si>
+    <t>MEID_アクスドラゴン</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_スルト</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_レーヴァテイン</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ロキ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_レーギャルン</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヘルビンディ</t>
+  </si>
+  <si>
+    <t>MEID_レッドペガサス</t>
+  </si>
+  <si>
+    <t>MEID_ブルーペガサス</t>
+  </si>
+  <si>
+    <t>MEID_グリーンペガサス</t>
+  </si>
+  <si>
+    <t>MEID_ボウペガサス</t>
+  </si>
+  <si>
+    <t>MEID_ラウアファヴニル</t>
+  </si>
+  <si>
+    <t>MEID_ブラーファヴニル</t>
+  </si>
+  <si>
+    <t>MEID_グルンファヴニル</t>
+  </si>
+  <si>
+    <t>MEID_レッドボウ</t>
+  </si>
+  <si>
+    <t>MEID_ブルーボウ</t>
+  </si>
+  <si>
+    <t>MEID_グリーンボウ</t>
+  </si>
+  <si>
+    <t>MEID_レッドシーフ</t>
+  </si>
+  <si>
+    <t>MEID_ブルーシーフ</t>
+  </si>
+  <si>
+    <t>MEID_グリーンシーフ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_リーヴ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_スラシル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヘル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_グスタフ</t>
+  </si>
+  <si>
+    <t>MEID_ヴェロニカ洗脳</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヴェロニカ洗脳</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_レティシア</t>
+  </si>
+  <si>
+    <t>MEID_エンブラ兵</t>
+  </si>
+  <si>
+    <t>MEID_レティシア洗脳</t>
+  </si>
+  <si>
+    <t>MEID_ラウアバット</t>
+  </si>
+  <si>
+    <t>MEID_ブラーバット</t>
+  </si>
+  <si>
+    <t>MEID_グルンバット</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_レティシア洗脳</t>
+  </si>
+  <si>
+    <t>MEID_ブルーノ洗脳</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ブルーノ洗脳</t>
+  </si>
+  <si>
+    <t>MEID_ヴェロニカ洗脳2</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヴェロニカ洗脳2</t>
+  </si>
+  <si>
+    <t>MEID_リーヴ2</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_リーヴ2</t>
+  </si>
+  <si>
+    <t>MEID_ブルーノ素顔</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ブルーノ素顔</t>
+  </si>
+  <si>
+    <t>MEID_開花エイル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_開花エイル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヴェロニカ2</t>
+  </si>
+  <si>
+    <t>MEID_魔器ガングレト</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_魔器ガングレト</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_エンブラ</t>
+  </si>
+  <si>
+    <t>MEID_ソードファイター</t>
+  </si>
+  <si>
+    <t>MEID_ソードアーマー</t>
+  </si>
+  <si>
+    <t>MEID_ソードナイト</t>
+  </si>
+  <si>
+    <t>MEID_ソードペガサス</t>
+  </si>
+  <si>
+    <t>MEID_ランスファイター</t>
+  </si>
+  <si>
+    <t>MEID_ランスアーマー</t>
+  </si>
+  <si>
+    <t>MEID_ランスナイト</t>
+  </si>
+  <si>
+    <t>MEID_ランスペガサス</t>
+  </si>
+  <si>
+    <t>MEID_アクスファイター</t>
+  </si>
+  <si>
+    <t>MEID_アクスアーマー</t>
+  </si>
+  <si>
+    <t>MEID_アクスナイト</t>
+  </si>
+  <si>
+    <t>MEID_アクスペガサス</t>
+  </si>
+  <si>
+    <t>MEID_ボウファイター</t>
+  </si>
+  <si>
+    <t>MEID_ボウナイト</t>
+  </si>
+  <si>
+    <t>MEID_シーフ</t>
+  </si>
+  <si>
+    <t>MEID_レッドマージ</t>
+  </si>
+  <si>
+    <t>MEID_レッドナイト</t>
+  </si>
+  <si>
+    <t>MEID_ブルーマージ</t>
+  </si>
+  <si>
+    <t>MEID_ブルーナイト</t>
+  </si>
+  <si>
+    <t>MEID_グリーンマージ</t>
+  </si>
+  <si>
+    <t>MEID_グリーンナイト</t>
+  </si>
+  <si>
+    <t>MEID_シスター</t>
+  </si>
+  <si>
+    <t>MEID_ロッドナイト</t>
+  </si>
+  <si>
+    <t>MEID_ブルーノ</t>
+  </si>
+  <si>
+    <t>MEID_ヴェロニカ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ブルーノ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヴェロニカ</t>
+  </si>
+  <si>
+    <t>MEID_グルヴェイグ</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_グルヴェイグ</t>
+  </si>
+  <si>
+    <t>MSID_タングリスニR</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ネルトゥス</t>
+  </si>
+  <si>
+    <t>엘리제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스카비오사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악몽의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음몽의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플루메리아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레이야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악몽의 여왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈의 왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_フード</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반신의 벗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오트르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파프니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕의 남동생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이트리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_ファフニール</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광야의 왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설의 소환사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양광의 빛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매혹의 월광</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불려진 자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_アスク兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_ニザヴェリル兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스크병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니다벨리르병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 스팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 스팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 스팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니플</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무스펠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피요름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃핀 얼음의 공주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린 현자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠블라의 권속</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우아 맘쿠트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블라 맘쿠트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룬 맘쿠트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 드래곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 드래곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 드래곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난을 좋아하는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염검의 칼집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥의 바닥의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보우 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우아 파프니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블라 파프니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룬 파프니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 보우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 보우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 보우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 시프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 시프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 시프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>격살의 검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오살의 마녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음의 왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭살의 기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【저주부대】의 장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠블라병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우아 배트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블라 배트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룬 배트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙의된 황녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙의된 황자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마기검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어나는 자랑스러운 생명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 사신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 파이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 아머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 파이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 아머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜스 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 파이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 아머</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>액스 페가수스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보우 파이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보우 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 메이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 메이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 메이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드 나이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수수께끼의 가면기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠블라 제국 황녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴베이그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금의 마녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탕그리스니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네르투스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_ネルトゥス</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 여신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2533,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3576,6 +4386,1022 @@
         <v>238</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>364</v>
+      </c>
+      <c r="B131" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>365</v>
+      </c>
+      <c r="B132" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>367</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>366</v>
+      </c>
+      <c r="B134" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>372</v>
+      </c>
+      <c r="B138" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>373</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>374</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>375</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>376</v>
+      </c>
+      <c r="B142" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>378</v>
+      </c>
+      <c r="B143" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>379</v>
+      </c>
+      <c r="B144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>381</v>
+      </c>
+      <c r="B146" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>382</v>
+      </c>
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>383</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>384</v>
+      </c>
+      <c r="B150" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>387</v>
+      </c>
+      <c r="B151" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>388</v>
+      </c>
+      <c r="B152" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>379</v>
+      </c>
+      <c r="B153" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>379</v>
+      </c>
+      <c r="B154" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>379</v>
+      </c>
+      <c r="B155" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>379</v>
+      </c>
+      <c r="B156" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>379</v>
+      </c>
+      <c r="B157" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>379</v>
+      </c>
+      <c r="B158" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>389</v>
+      </c>
+      <c r="B159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>390</v>
+      </c>
+      <c r="B160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>391</v>
+      </c>
+      <c r="B161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>392</v>
+      </c>
+      <c r="B162" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>393</v>
+      </c>
+      <c r="B163" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>394</v>
+      </c>
+      <c r="B164" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>395</v>
+      </c>
+      <c r="B165" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>374</v>
+      </c>
+      <c r="B166" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>378</v>
+      </c>
+      <c r="B167" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>396</v>
+      </c>
+      <c r="B168" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>397</v>
+      </c>
+      <c r="B169" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>398</v>
+      </c>
+      <c r="B170" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>399</v>
+      </c>
+      <c r="B171" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>401</v>
+      </c>
+      <c r="B173" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>402</v>
+      </c>
+      <c r="B174" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>403</v>
+      </c>
+      <c r="B175" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>404</v>
+      </c>
+      <c r="B176" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>405</v>
+      </c>
+      <c r="B177" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>406</v>
+      </c>
+      <c r="B178" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>407</v>
+      </c>
+      <c r="B179" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>408</v>
+      </c>
+      <c r="B180" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>409</v>
+      </c>
+      <c r="B181" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>410</v>
+      </c>
+      <c r="B182" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>411</v>
+      </c>
+      <c r="B183" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>412</v>
+      </c>
+      <c r="B184" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>413</v>
+      </c>
+      <c r="B185" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>414</v>
+      </c>
+      <c r="B186" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>415</v>
+      </c>
+      <c r="B187" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>417</v>
+      </c>
+      <c r="B189" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>418</v>
+      </c>
+      <c r="B190" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>419</v>
+      </c>
+      <c r="B191" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>420</v>
+      </c>
+      <c r="B192" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>421</v>
+      </c>
+      <c r="B193" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>422</v>
+      </c>
+      <c r="B194" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>423</v>
+      </c>
+      <c r="B195" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>424</v>
+      </c>
+      <c r="B196" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>425</v>
+      </c>
+      <c r="B197" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>426</v>
+      </c>
+      <c r="B198" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>428</v>
+      </c>
+      <c r="B200" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>429</v>
+      </c>
+      <c r="B201" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>435</v>
+      </c>
+      <c r="B203" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>430</v>
+      </c>
+      <c r="B204" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>431</v>
+      </c>
+      <c r="B205" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>432</v>
+      </c>
+      <c r="B207" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>433</v>
+      </c>
+      <c r="B208" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>434</v>
+      </c>
+      <c r="B209" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>430</v>
+      </c>
+      <c r="B210" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>128</v>
+      </c>
+      <c r="B211" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>436</v>
+      </c>
+      <c r="B212" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>195</v>
+      </c>
+      <c r="B213" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>160</v>
+      </c>
+      <c r="B215" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+      <c r="B216" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>128</v>
+      </c>
+      <c r="B217" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>439</v>
+      </c>
+      <c r="B220" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>435</v>
+      </c>
+      <c r="B221" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>198</v>
+      </c>
+      <c r="B222" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>442</v>
+      </c>
+      <c r="B225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>444</v>
+      </c>
+      <c r="B227" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>445</v>
+      </c>
+      <c r="B228" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>446</v>
+      </c>
+      <c r="B229" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>447</v>
+      </c>
+      <c r="B230" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>448</v>
+      </c>
+      <c r="B231" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>449</v>
+      </c>
+      <c r="B232" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>450</v>
+      </c>
+      <c r="B233" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>451</v>
+      </c>
+      <c r="B234" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>452</v>
+      </c>
+      <c r="B235" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>453</v>
+      </c>
+      <c r="B236" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>454</v>
+      </c>
+      <c r="B237" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>455</v>
+      </c>
+      <c r="B238" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>456</v>
+      </c>
+      <c r="B239" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>457</v>
+      </c>
+      <c r="B240" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>458</v>
+      </c>
+      <c r="B241" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>459</v>
+      </c>
+      <c r="B242" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>460</v>
+      </c>
+      <c r="B243" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>461</v>
+      </c>
+      <c r="B244" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>462</v>
+      </c>
+      <c r="B245" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>463</v>
+      </c>
+      <c r="B246" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>464</v>
+      </c>
+      <c r="B247" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>465</v>
+      </c>
+      <c r="B248" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>195</v>
+      </c>
+      <c r="B249" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>466</v>
+      </c>
+      <c r="B250" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>467</v>
+      </c>
+      <c r="B251" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>468</v>
+      </c>
+      <c r="B252" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>469</v>
+      </c>
+      <c r="B253" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>470</v>
+      </c>
+      <c r="B254" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>471</v>
+      </c>
+      <c r="B255" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>473</v>
+      </c>
+      <c r="B256" t="s">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\Desktop\엠히 빌더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0720EB-9A94-4BA7-B7B7-4D1C5EA71BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525698E-EEB8-48DB-AFBA-109FC1EBCF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="690" windowWidth="23325" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="660" windowWidth="20820" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="476">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3005,6 +3014,26 @@
   </si>
   <si>
     <t>땅의 여신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MSID_完全なる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>黄金</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전한 황금</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3012,7 +3041,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3035,6 +3064,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3343,10 +3379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A258" sqref="A258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5402,8 +5438,17 @@
         <v>362</v>
       </c>
     </row>
+    <row r="257" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>475</v>
+      </c>
+      <c r="B257" t="s">
+        <v>474</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3525698E-EEB8-48DB-AFBA-109FC1EBCF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00EE3E-E5CE-4DEE-A3E7-07FD06AD6894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="660" windowWidth="20820" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29355" yWindow="1305" windowWidth="24645" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="478">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3034,6 +3034,13 @@
   </si>
   <si>
     <t>완전한 황금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPID_クワシル</t>
+  </si>
+  <si>
+    <t>크바실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3379,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+      <selection activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5446,6 +5453,14 @@
         <v>474</v>
       </c>
     </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>477</v>
+      </c>
+      <c r="B258" t="s">
+        <v>476</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A00EE3E-E5CE-4DEE-A3E7-07FD06AD6894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A2731-5819-4C28-AB06-2250DCD46CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="1305" windowWidth="24645" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24645" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="481">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3041,6 +3041,16 @@
   </si>
   <si>
     <t>크바실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_クワシル</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_クワシル</t>
+  </si>
+  <si>
+    <t>과거의 마녀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3386,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B260" sqref="B260"/>
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5461,6 +5471,22 @@
         <v>476</v>
       </c>
     </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>477</v>
+      </c>
+      <c r="B259" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>480</v>
+      </c>
+      <c r="B260" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7A2731-5819-4C28-AB06-2250DCD46CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D56592-48CC-4FCF-B4E9-A2DC66D71D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24645" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="1785" windowWidth="22560" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="485">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3051,6 +3051,20 @@
   </si>
   <si>
     <t>과거의 마녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_魔器アイト</t>
+  </si>
+  <si>
+    <t>에이트르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_魔器アイト</t>
+  </si>
+  <si>
+    <t>허무의 하인</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3396,10 +3410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5487,6 +5501,22 @@
         <v>479</v>
       </c>
     </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>482</v>
+      </c>
+      <c r="B261" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>484</v>
+      </c>
+      <c r="B262" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D56592-48CC-4FCF-B4E9-A2DC66D71D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AB292-C416-48D1-A242-401A7357280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="1785" windowWidth="22560" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23940" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="489">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3065,6 +3065,19 @@
   </si>
   <si>
     <t>허무의 하인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_ヘイズ敵</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヘイズ敵</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_ヘイズ敵0</t>
+  </si>
+  <si>
+    <t>저주받은 여신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3410,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5517,6 +5530,38 @@
         <v>483</v>
       </c>
     </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>240</v>
+      </c>
+      <c r="B263" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>240</v>
+      </c>
+      <c r="B264" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>488</v>
+      </c>
+      <c r="B265" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>488</v>
+      </c>
+      <c r="B266" t="s">
+        <v>487</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AB292-C416-48D1-A242-401A7357280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6EBCD8-7939-425C-8478-116C33A869DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="23940" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="1485" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="492">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3074,10 +3074,23 @@
     <t>MEID_HONOR_ヘイズ敵</t>
   </si>
   <si>
+    <t>저주받은 여신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>MEID_HONOR_ヘイズ敵0</t>
-  </si>
-  <si>
-    <t>저주받은 여신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_ヘイズ敵0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID_UNIT_INFO_EXP_REMAIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3423,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5543,12 +5556,12 @@
         <v>240</v>
       </c>
       <c r="B264" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B265" t="s">
         <v>486</v>
@@ -5556,10 +5569,18 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>487</v>
+      </c>
+      <c r="B266" t="s">
         <v>488</v>
       </c>
-      <c r="B266" t="s">
-        <v>487</v>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>491</v>
+      </c>
+      <c r="B267" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6EBCD8-7939-425C-8478-116C33A869DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C428BA-E405-410F-899E-334CD1460821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2235" yWindow="1485" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="495">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3091,6 +3091,16 @@
   </si>
   <si>
     <t>앞으로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_魔器プルメリア</t>
+  </si>
+  <si>
+    <t>MEID_HONOR_魔器プルメリア</t>
+  </si>
+  <si>
+    <t>황홀한 꿈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3436,10 +3446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5583,6 +5593,22 @@
         <v>490</v>
       </c>
     </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>367</v>
+      </c>
+      <c r="B268" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>494</v>
+      </c>
+      <c r="B269" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C428BA-E405-410F-899E-334CD1460821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA3F389-078A-4C93-9A96-A9C706A54B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1485" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="300" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="502">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3101,6 +3101,78 @@
   </si>
   <si>
     <t>황홀한 꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_HONOR_ピアニ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MEID_ピアニ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>피아니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친애의 꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPID_HONOR_スカビオサ2</t>
+  </si>
+  <si>
+    <t>MPID_スカビオサ2</t>
+  </si>
+  <si>
+    <t>헌신의 꿈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3446,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E257" sqref="E257"/>
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5609,6 +5681,38 @@
         <v>493</v>
       </c>
     </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>498</v>
+      </c>
+      <c r="B270" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>497</v>
+      </c>
+      <c r="B271" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>501</v>
+      </c>
+      <c r="B272" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>364</v>
+      </c>
+      <c r="B273" t="s">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA3F389-078A-4C93-9A96-A9C706A54B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93304A69-5C30-4480-B9E3-0D23715C5FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="300" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="1485" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="506">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3173,6 +3173,21 @@
   </si>
   <si>
     <t>헌신의 꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_魔器ギンヌン</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴눈가가프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_魔器ギンヌン</t>
+  </si>
+  <si>
+    <t>허무의 왕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3518,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5713,6 +5728,22 @@
         <v>500</v>
       </c>
     </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>503</v>
+      </c>
+      <c r="B274" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>505</v>
+      </c>
+      <c r="B275" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93304A69-5C30-4480-B9E3-0D23715C5FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C6A68-DC65-49AB-B390-934AB6B7D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1485" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1230" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="510">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3188,6 +3188,44 @@
   </si>
   <si>
     <t>허무의 왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_フレスベルグ</t>
+  </si>
+  <si>
+    <t>흐레스벨그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_ニ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ズヘッグ</t>
+    </r>
+  </si>
+  <si>
+    <t>니드호그</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3533,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B275"/>
+  <dimension ref="A1:B277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5744,6 +5782,22 @@
         <v>504</v>
       </c>
     </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>507</v>
+      </c>
+      <c r="B276" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>509</v>
+      </c>
+      <c r="B277" t="s">
+        <v>508</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C6A68-DC65-49AB-B390-934AB6B7D208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9DB19-73F1-4469-90CC-CBB65EA6D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1230" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="512">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3226,6 +3226,14 @@
   </si>
   <si>
     <t>니드호그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼날의 매장하는 손</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_フレスベルグ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3571,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B277"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5798,6 +5806,14 @@
         <v>508</v>
       </c>
     </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>510</v>
+      </c>
+      <c r="B278" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9DB19-73F1-4469-90CC-CBB65EA6D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE73F20-D7BF-4F68-A3DC-4E401C435A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26565" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="960" windowWidth="22710" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="514">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3234,6 +3234,26 @@
   </si>
   <si>
     <t>MEID_HONOR_フレスベルグ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_HONOR_ニ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーズヘッグ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독의 매장하는 손</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3579,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279"/>
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5814,6 +5834,14 @@
         <v>511</v>
       </c>
     </row>
+    <row r="279" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>513</v>
+      </c>
+      <c r="B279" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE73F20-D7BF-4F68-A3DC-4E401C435A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8685EF6B-36C1-4406-8A10-8B7F7EA09D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="960" windowWidth="22710" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33405" yWindow="435" windowWidth="24930" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="520">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3254,6 +3254,42 @@
   </si>
   <si>
     <t>독의 매장하는 손</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_レ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーラズ声</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레라드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_エイクスルニル</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이크쉬르니르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_エイクスルニル</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>육체의 매장하는 손</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3599,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B279"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5842,6 +5878,30 @@
         <v>512</v>
       </c>
     </row>
+    <row r="280" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>515</v>
+      </c>
+      <c r="B280" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>517</v>
+      </c>
+      <c r="B281" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>519</v>
+      </c>
+      <c r="B282" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8685EF6B-36C1-4406-8A10-8B7F7EA09D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230E6A-E384-484E-9233-0B0623B22DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="435" windowWidth="24930" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24720" yWindow="2265" windowWidth="25155" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="524">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3290,6 +3290,22 @@
   </si>
   <si>
     <t>육체의 매장하는 손</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_ニザヴェリル</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>니다벨리르</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_HONOR_ニザヴェリル</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건국왕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3635,10 +3651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5902,6 +5918,22 @@
         <v>518</v>
       </c>
     </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>521</v>
+      </c>
+      <c r="B283" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>523</v>
+      </c>
+      <c r="B284" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE230E6A-E384-484E-9233-0B0623B22DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB9A42-84F9-4B90-932E-099A25C1B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="2265" windowWidth="25155" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30495" yWindow="2175" windowWidth="22530" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="526">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3306,6 +3306,14 @@
   </si>
   <si>
     <t>건국왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID_シアチ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3651,10 +3659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5934,6 +5942,14 @@
         <v>522</v>
       </c>
     </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>525</v>
+      </c>
+      <c r="B285" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kokr_enmonly.xlsx
+++ b/kokr_enmonly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjh95\OneDrive\바탕 화면\엠히 빌더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DB9A42-84F9-4B90-932E-099A25C1B052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31EA0E-B3CC-43E1-BE4B-7D666EB9ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="2175" windowWidth="22530" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20970" yWindow="2625" windowWidth="22530" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="추가db" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="529">
   <si>
     <t>MPID_エンブラ</t>
   </si>
@@ -3314,6 +3314,42 @@
   </si>
   <si>
     <t>샤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_レ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーラズ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MEID_HONOR_レ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ーラズ</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음의 매장하는 손</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3659,7 +3695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC39CC5-FCD4-42A5-8CED-F3F8D309AAC8}">
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
       <selection activeCell="A288" sqref="A288"/>
@@ -5950,6 +5986,22 @@
         <v>524</v>
       </c>
     </row>
+    <row r="286" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>515</v>
+      </c>
+      <c r="B286" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>528</v>
+      </c>
+      <c r="B287" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
